--- a/raw_data/20200818_saline/20200818_Sensor0_Test_78.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_78.xlsx
@@ -1,780 +1,1196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EA1EF-B0AA-4643-811C-E37B04B357F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>69303.375420</v>
+        <v>69303.375419999997</v>
       </c>
       <c r="B2" s="1">
-        <v>19.250938</v>
+        <v>19.250938000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>901.750000</v>
+        <v>901.75</v>
       </c>
       <c r="D2" s="1">
-        <v>-188.858000</v>
+        <v>-188.858</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>69313.751729</v>
+        <v>69313.751728999996</v>
       </c>
       <c r="G2" s="1">
-        <v>19.253820</v>
+        <v>19.253820000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>918.124000</v>
+        <v>918.12400000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-160.493000</v>
+        <v>-160.49299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>69324.546130</v>
+        <v>69324.546130000002</v>
       </c>
       <c r="L2" s="1">
-        <v>19.256818</v>
+        <v>19.256817999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.756000</v>
+        <v>939.75599999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.473000</v>
+        <v>-116.473</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>69335.009732</v>
+        <v>69335.009732000006</v>
       </c>
       <c r="Q2" s="1">
         <v>19.259725</v>
       </c>
       <c r="R2" s="1">
-        <v>946.440000</v>
+        <v>946.44</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.937000</v>
+        <v>-101.937</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>69345.578517</v>
+        <v>69345.578517000002</v>
       </c>
       <c r="V2" s="1">
-        <v>19.262661</v>
+        <v>19.262661000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>953.112000</v>
+        <v>953.11199999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.989800</v>
+        <v>-88.989800000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>69356.319883</v>
+        <v>69356.319883000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.265644</v>
+        <v>19.265644000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.739000</v>
+        <v>960.73900000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.997400</v>
+        <v>-79.997399999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>69366.582073</v>
+        <v>69366.582072999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.268495</v>
+        <v>19.268495000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.999000</v>
+        <v>965.99900000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.835800</v>
+        <v>-79.835800000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>69376.773371</v>
+        <v>69376.773371000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.271326</v>
+        <v>19.271325999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.166000</v>
+        <v>974.16600000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.572300</v>
+        <v>-87.572299999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>69387.048990</v>
+        <v>69387.048989999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.274180</v>
+        <v>19.274180000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.470000</v>
+        <v>983.47</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>69397.664864</v>
+        <v>69397.664864000006</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.277129</v>
+        <v>19.277128999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.990000</v>
+        <v>994.99</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>69408.824849</v>
+        <v>69408.824848999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.280229</v>
+        <v>19.280228999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.477000</v>
+        <v>-142.477</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>69419.413975</v>
+        <v>69419.413975000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.283171</v>
+        <v>19.283170999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.661000</v>
+        <v>-226.661</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>69430.362628</v>
+        <v>69430.362628000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.286212</v>
+        <v>19.286211999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1130.260000</v>
+        <v>1130.26</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.042000</v>
+        <v>-361.04199999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>69441.121848</v>
+        <v>69441.121847999995</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.289201</v>
+        <v>19.289200999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.910000</v>
+        <v>1261.9100000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.456000</v>
+        <v>-567.45600000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>69451.159420</v>
+        <v>69451.159419999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.291989</v>
+        <v>19.291989000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.366000</v>
+        <v>-787.36599999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>69461.835307</v>
+        <v>69461.835307000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.294954</v>
+        <v>19.294954000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1569.320000</v>
+        <v>1569.32</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1015.520000</v>
+        <v>-1015.52</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>69472.889116</v>
+        <v>69472.889116000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.298025</v>
+        <v>19.298024999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1970.610000</v>
+        <v>1970.61</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1548.970000</v>
+        <v>-1548.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>69303.778140</v>
+        <v>69303.778139999995</v>
       </c>
       <c r="B3" s="1">
-        <v>19.251049</v>
+        <v>19.251048999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>901.656000</v>
+        <v>901.65599999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-188.757000</v>
+        <v>-188.75700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>69314.100415</v>
+        <v>69314.100414999994</v>
       </c>
       <c r="G3" s="1">
-        <v>19.253917</v>
+        <v>19.253917000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.604000</v>
+        <v>917.60400000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-160.713000</v>
+        <v>-160.71299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>69324.895322</v>
+        <v>69324.895321999997</v>
       </c>
       <c r="L3" s="1">
-        <v>19.256915</v>
+        <v>19.256914999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>939.579000</v>
+        <v>939.57899999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.386000</v>
+        <v>-116.386</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>69335.374786</v>
@@ -783,1600 +1199,1600 @@
         <v>19.259826</v>
       </c>
       <c r="R3" s="1">
-        <v>946.415000</v>
+        <v>946.41499999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.913000</v>
+        <v>-101.913</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>69346.273381</v>
+        <v>69346.273381000006</v>
       </c>
       <c r="V3" s="1">
-        <v>19.262854</v>
+        <v>19.262854000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>953.174000</v>
+        <v>953.17399999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.982200</v>
+        <v>-88.982200000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>69356.428967</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.265675</v>
+        <v>19.265675000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.782000</v>
+        <v>960.78200000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.068600</v>
+        <v>-80.068600000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>69366.980857</v>
+        <v>69366.980857000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.268606</v>
+        <v>19.268605999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.755000</v>
+        <v>965.755</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.873200</v>
+        <v>-79.873199999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>69377.122587</v>
+        <v>69377.122587000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.271423</v>
+        <v>19.271422999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.162000</v>
+        <v>974.16200000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.574600</v>
+        <v>-87.574600000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>69387.412061</v>
+        <v>69387.412060999995</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.274281</v>
+        <v>19.274280999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.480000</v>
+        <v>983.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.413000</v>
+        <v>-102.413</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>69398.068607</v>
+        <v>69398.068606999994</v>
       </c>
       <c r="AU3" s="1">
         <v>19.277241</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.007000</v>
+        <v>995.00699999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>69409.249922</v>
+        <v>69409.249922000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.280347</v>
+        <v>19.280346999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.680000</v>
+        <v>1004.68</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.481000</v>
+        <v>-142.48099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>69419.843476</v>
+        <v>69419.843475999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.283290</v>
+        <v>19.283290000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1050.340000</v>
+        <v>1050.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.691000</v>
+        <v>-226.691</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>69430.469268</v>
+        <v>69430.469268000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>19.286241</v>
       </c>
       <c r="BK3" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.045000</v>
+        <v>-361.04500000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>69441.238408</v>
+        <v>69441.238408000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.289233</v>
+        <v>19.289232999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.439000</v>
+        <v>-567.43899999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>69451.611737</v>
+        <v>69451.611736999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.292114</v>
+        <v>19.292114000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="BV3" s="1">
-        <v>-787.301000</v>
+        <v>-787.30100000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>69462.303508</v>
+        <v>69462.303507999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.295084</v>
+        <v>19.295083999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1569.330000</v>
+        <v>1569.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1015.630000</v>
+        <v>-1015.63</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>69473.480349</v>
+        <v>69473.480349000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.298189</v>
+        <v>19.298189000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1972.550000</v>
+        <v>1972.55</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1549.210000</v>
+        <v>-1549.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>69304.124349</v>
+        <v>69304.124349000005</v>
       </c>
       <c r="B4" s="1">
-        <v>19.251146</v>
+        <v>19.251145999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.656000</v>
+        <v>901.65599999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-188.784000</v>
+        <v>-188.78399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>69314.445133</v>
+        <v>69314.445133000001</v>
       </c>
       <c r="G4" s="1">
         <v>19.254013</v>
       </c>
       <c r="H4" s="1">
-        <v>917.677000</v>
+        <v>917.67700000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.799000</v>
+        <v>-160.79900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>69325.551550</v>
+        <v>69325.551550000004</v>
       </c>
       <c r="L4" s="1">
-        <v>19.257098</v>
+        <v>19.257097999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.901000</v>
+        <v>939.90099999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.389000</v>
+        <v>-116.389</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>69336.042934</v>
+        <v>69336.042933999997</v>
       </c>
       <c r="Q4" s="1">
         <v>19.260012</v>
       </c>
       <c r="R4" s="1">
-        <v>946.447000</v>
+        <v>946.447</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.982000</v>
+        <v>-101.982</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>69346.648882</v>
+        <v>69346.648881999994</v>
       </c>
       <c r="V4" s="1">
-        <v>19.262958</v>
+        <v>19.262958000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.227000</v>
+        <v>953.22699999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.988400</v>
+        <v>-88.988399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>69356.772198</v>
+        <v>69356.772198000006</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.265770</v>
+        <v>19.26577</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.813000</v>
+        <v>960.81299999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.012300</v>
+        <v>-80.012299999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>69367.321609</v>
+        <v>69367.321609000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.268700</v>
+        <v>19.268699999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.963000</v>
+        <v>965.96299999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.761200</v>
+        <v>-79.761200000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>69377.470288</v>
+        <v>69377.470287999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.271520</v>
+        <v>19.271519999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.154000</v>
+        <v>974.154</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.566200</v>
+        <v>-87.566199999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>69387.770669</v>
+        <v>69387.770669000005</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.274381</v>
+        <v>19.274381000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.492000</v>
+        <v>983.49199999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>69398.486735</v>
+        <v>69398.486734999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.277357</v>
+        <v>19.277356999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.000000</v>
+        <v>995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>69409.543056</v>
+        <v>69409.543055999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.280429</v>
+        <v>19.280429000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.496000</v>
+        <v>-142.49600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>69420.158447</v>
+        <v>69420.158446999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.283377</v>
+        <v>19.283377000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.679000</v>
+        <v>-226.679</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>69430.835813</v>
+        <v>69430.835812999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.286343</v>
+        <v>19.286342999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1130.260000</v>
+        <v>1130.26</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.037000</v>
+        <v>-361.03699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>69441.663018</v>
+        <v>69441.663018000007</v>
       </c>
       <c r="BO4" s="1">
         <v>19.289351</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.482000</v>
+        <v>-567.48199999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>69452.036840</v>
+        <v>69452.036840000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.292232</v>
+        <v>19.292231999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.220000</v>
+        <v>-787.22</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>69462.737499</v>
+        <v>69462.737498999995</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.295205</v>
+        <v>19.295204999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1569.430000</v>
+        <v>1569.43</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1015.690000</v>
+        <v>-1015.69</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>69474.022973</v>
+        <v>69474.022972999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.298340</v>
+        <v>19.29834</v>
       </c>
       <c r="CE4" s="1">
-        <v>1971.510000</v>
+        <v>1971.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1547.890000</v>
+        <v>-1547.89</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>69304.773115</v>
+        <v>69304.773115000004</v>
       </c>
       <c r="B5" s="1">
-        <v>19.251326</v>
+        <v>19.251325999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>901.779000</v>
+        <v>901.779</v>
       </c>
       <c r="D5" s="1">
-        <v>-188.666000</v>
+        <v>-188.666</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>69315.108779</v>
+        <v>69315.108779000002</v>
       </c>
       <c r="G5" s="1">
-        <v>19.254197</v>
+        <v>19.254197000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>917.754000</v>
+        <v>917.75400000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-160.487000</v>
+        <v>-160.48699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>69325.932975</v>
+        <v>69325.932975000003</v>
       </c>
       <c r="L5" s="1">
-        <v>19.257204</v>
+        <v>19.257204000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>939.681000</v>
+        <v>939.68100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.379000</v>
+        <v>-116.379</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>69336.424321</v>
+        <v>69336.424320999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.260118</v>
+        <v>19.260117999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.467000</v>
+        <v>946.46699999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.943000</v>
+        <v>-101.943</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>69346.991123</v>
       </c>
       <c r="V5" s="1">
-        <v>19.263053</v>
+        <v>19.263052999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>953.155000</v>
+        <v>953.15499999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.924400</v>
+        <v>-88.924400000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>69357.115927</v>
+        <v>69357.115927000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.265866</v>
+        <v>19.265865999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.803000</v>
+        <v>960.803</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.991500</v>
+        <v>-79.991500000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>69367.665832</v>
+        <v>69367.665831999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.268796</v>
+        <v>19.268795999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.954000</v>
+        <v>965.95399999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.738800</v>
+        <v>-79.738799999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>69377.882922</v>
+        <v>69377.882922000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.271634</v>
+        <v>19.271633999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.159000</v>
+        <v>974.15899999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.583900</v>
+        <v>-87.5839</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>69388.189789</v>
+        <v>69388.189788999996</v>
       </c>
       <c r="AP5" s="1">
         <v>19.274497</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.494000</v>
+        <v>983.49400000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.400000</v>
+        <v>-102.4</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>69398.795247</v>
+        <v>69398.795247000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.277443</v>
+        <v>19.277443000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.983000</v>
+        <v>994.98299999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>69409.902657</v>
+        <v>69409.902656999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.280529</v>
+        <v>19.280529000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.480000</v>
+        <v>-142.47999999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>69420.521009</v>
+        <v>69420.521009000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.283478</v>
+        <v>19.283477999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.686000</v>
+        <v>-226.68600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>69431.209903</v>
+        <v>69431.209902999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.286447</v>
+        <v>19.286446999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.052000</v>
+        <v>-361.05200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>69442.386655</v>
+        <v>69442.386654999995</v>
       </c>
       <c r="BO5" s="1">
         <v>19.289552</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.487000</v>
+        <v>-567.48699999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>69452.450994</v>
+        <v>69452.450993999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.292347</v>
+        <v>19.292346999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.590000</v>
+        <v>1408.59</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.134000</v>
+        <v>-787.13400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>69463.193849</v>
+        <v>69463.193849000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.295332</v>
+        <v>19.295331999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.360000</v>
+        <v>1569.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1015.640000</v>
+        <v>-1015.64</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>69474.563147</v>
+        <v>69474.563146999993</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.298490</v>
+        <v>19.298490000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1970.690000</v>
+        <v>1970.69</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1549.680000</v>
+        <v>-1549.68</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>69305.147134</v>
+        <v>69305.147133999999</v>
       </c>
       <c r="B6" s="1">
-        <v>19.251430</v>
+        <v>19.251429999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>901.786000</v>
+        <v>901.78599999999994</v>
       </c>
       <c r="D6" s="1">
-        <v>-188.855000</v>
+        <v>-188.85499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>69315.477773</v>
+        <v>69315.477773000006</v>
       </c>
       <c r="G6" s="1">
         <v>19.254299</v>
       </c>
       <c r="H6" s="1">
-        <v>918.489000</v>
+        <v>918.48900000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.034000</v>
+        <v>-161.03399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>69326.275182</v>
+        <v>69326.275181999998</v>
       </c>
       <c r="L6" s="1">
         <v>19.257299</v>
       </c>
       <c r="M6" s="1">
-        <v>939.690000</v>
+        <v>939.69</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.392000</v>
+        <v>-116.392</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>69336.769041</v>
+        <v>69336.769041000007</v>
       </c>
       <c r="Q6" s="1">
-        <v>19.260214</v>
+        <v>19.260214000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>946.408000</v>
+        <v>946.40800000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.968000</v>
+        <v>-101.968</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>69347.334820</v>
+        <v>69347.334820000004</v>
       </c>
       <c r="V6" s="1">
-        <v>19.263149</v>
+        <v>19.263148999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>953.113000</v>
+        <v>953.11300000000006</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.966900</v>
+        <v>-88.966899999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>69357.540998</v>
+        <v>69357.540997999997</v>
       </c>
       <c r="AA6" s="1">
         <v>19.265984</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.734000</v>
+        <v>960.73400000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.940700</v>
+        <v>-79.940700000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>69368.084951</v>
+        <v>69368.084950999997</v>
       </c>
       <c r="AF6" s="1">
         <v>19.268912</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.938000</v>
+        <v>965.93799999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.737100</v>
+        <v>-79.737099999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>69378.172618</v>
+        <v>69378.172617999997</v>
       </c>
       <c r="AK6" s="1">
         <v>19.271715</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.150000</v>
+        <v>974.15</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.600500</v>
+        <v>-87.600499999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>69388.492348</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.274581</v>
+        <v>19.274581000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.483000</v>
+        <v>983.48299999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.397000</v>
+        <v>-102.39700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>69399.160799</v>
+        <v>69399.160799000005</v>
       </c>
       <c r="AU6" s="1">
         <v>19.277545</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.992000</v>
+        <v>994.99199999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.832000</v>
+        <v>-123.83199999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>69410.258783</v>
+        <v>69410.258782999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.280627</v>
+        <v>19.280626999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.475000</v>
+        <v>-142.47499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>69420.883586</v>
+        <v>69420.883585999996</v>
       </c>
       <c r="BE6" s="1">
         <v>19.283579</v>
       </c>
       <c r="BF6" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.686000</v>
+        <v>-226.68600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>69431.961732</v>
+        <v>69431.961731999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.286656</v>
+        <v>19.286656000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1130.240000</v>
+        <v>1130.24</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.059000</v>
+        <v>-361.05900000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>69442.499237</v>
+        <v>69442.499236999996</v>
       </c>
       <c r="BO6" s="1">
         <v>19.289583</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.910000</v>
+        <v>1261.9100000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.465000</v>
+        <v>-567.46500000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>69452.865624</v>
+        <v>69452.865623999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.292463</v>
+        <v>19.292463000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.570000</v>
+        <v>1408.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-787.103000</v>
+        <v>-787.10299999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>69463.644713</v>
+        <v>69463.644713000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.295457</v>
+        <v>19.295456999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1569.250000</v>
+        <v>1569.25</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1015.610000</v>
+        <v>-1015.61</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>69475.105738</v>
+        <v>69475.105737999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.298640</v>
+        <v>19.298639999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1972.420000</v>
+        <v>1972.42</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1548.400000</v>
+        <v>-1548.4</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>69305.489835</v>
       </c>
       <c r="B7" s="1">
-        <v>19.251525</v>
+        <v>19.251525000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>901.748000</v>
+        <v>901.74800000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-188.748000</v>
+        <v>-188.74799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>69315.823982</v>
+        <v>69315.823982000002</v>
       </c>
       <c r="G7" s="1">
         <v>19.254396</v>
       </c>
       <c r="H7" s="1">
-        <v>918.008000</v>
+        <v>918.00800000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-160.480000</v>
+        <v>-160.47999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>69326.622382</v>
+        <v>69326.622382000001</v>
       </c>
       <c r="L7" s="1">
-        <v>19.257395</v>
+        <v>19.257394999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.793000</v>
+        <v>939.79300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.491000</v>
+        <v>-116.491</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>69337.117232</v>
+        <v>69337.117232000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.260310</v>
+        <v>19.26031</v>
       </c>
       <c r="R7" s="1">
-        <v>946.428000</v>
+        <v>946.428</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.996000</v>
+        <v>-101.996</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>69347.758434</v>
+        <v>69347.758434000003</v>
       </c>
       <c r="V7" s="1">
-        <v>19.263266</v>
+        <v>19.263266000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>953.215000</v>
+        <v>953.21500000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.951700</v>
+        <v>-88.951700000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>69357.820748</v>
+        <v>69357.820747999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.266061</v>
+        <v>19.266061000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.779000</v>
+        <v>960.779</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.973900</v>
+        <v>-79.9739</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>69368.359753</v>
+        <v>69368.359752999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.268989</v>
+        <v>19.268989000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.005000</v>
+        <v>966.005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.789300</v>
+        <v>-79.789299999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>69378.520281</v>
+        <v>69378.520281000005</v>
       </c>
       <c r="AK7" s="1">
         <v>19.271811</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.152000</v>
+        <v>974.15200000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.586200</v>
+        <v>-87.586200000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>69388.852443</v>
+        <v>69388.852442999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.274681</v>
+        <v>19.274681000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.498000</v>
+        <v>983.49800000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.406000</v>
+        <v>-102.40600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>69399.522905</v>
+        <v>69399.522905000005</v>
       </c>
       <c r="AU7" s="1">
         <v>19.277645</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.978000</v>
+        <v>994.97799999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>69410.975537</v>
+        <v>69410.975537000006</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.280827</v>
+        <v>19.280826999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.486000</v>
+        <v>-142.48599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>69421.600801</v>
+        <v>69421.600800999993</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.283778</v>
+        <v>19.283778000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.678000</v>
+        <v>-226.678</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>69432.335747</v>
+        <v>69432.335747000005</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.286760</v>
+        <v>19.286760000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1130.270000</v>
+        <v>1130.27</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.077000</v>
+        <v>-361.077</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>69442.874212</v>
+        <v>69442.874211999995</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.289687</v>
+        <v>19.289687000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.479000</v>
+        <v>-567.47900000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>69453.281271</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.292578</v>
+        <v>19.292577999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.540000</v>
+        <v>1408.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-787.031000</v>
+        <v>-787.03099999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>69464.409047</v>
+        <v>69464.409046999994</v>
       </c>
       <c r="BY7" s="1">
         <v>19.295669</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.380000</v>
+        <v>1569.38</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1015.690000</v>
+        <v>-1015.69</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>69475.960840</v>
+        <v>69475.96084</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.298878</v>
+        <v>19.298877999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1971.760000</v>
+        <v>1971.76</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1549.960000</v>
+        <v>-1549.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>69305.831607</v>
       </c>
       <c r="B8" s="1">
-        <v>19.251620</v>
+        <v>19.251619999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>901.712000</v>
+        <v>901.71199999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-188.761000</v>
+        <v>-188.761</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>69316.173692</v>
+        <v>69316.173691999997</v>
       </c>
       <c r="G8" s="1">
         <v>19.254493</v>
       </c>
       <c r="H8" s="1">
-        <v>917.985000</v>
+        <v>917.98500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-160.377000</v>
+        <v>-160.37700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>69327.044973</v>
+        <v>69327.044972999996</v>
       </c>
       <c r="L8" s="1">
-        <v>19.257512</v>
+        <v>19.257511999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>939.816000</v>
+        <v>939.81600000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.395000</v>
+        <v>-116.395</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>69337.701740</v>
+        <v>69337.701740000004</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.260473</v>
+        <v>19.260473000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.450000</v>
+        <v>946.45</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.924000</v>
+        <v>-101.92400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>69348.024293</v>
+        <v>69348.024292999995</v>
       </c>
       <c r="V8" s="1">
-        <v>19.263340</v>
+        <v>19.263339999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.266000</v>
+        <v>953.26599999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.012500</v>
+        <v>-89.012500000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>69358.171909</v>
+        <v>69358.171908999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.266159</v>
+        <v>19.266158999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.783000</v>
+        <v>960.78300000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.051800</v>
+        <v>-80.0518</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>69368.700984</v>
+        <v>69368.700983999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.269084</v>
+        <v>19.269083999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.015000</v>
+        <v>966.01499999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.783000</v>
+        <v>-79.783000000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69378.870985</v>
+        <v>69378.870985000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.271909</v>
+        <v>19.271909000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.158000</v>
+        <v>974.15800000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.553800</v>
+        <v>-87.553799999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>69389.211547</v>
+        <v>69389.211546999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.274781</v>
+        <v>19.274781000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.467000</v>
+        <v>983.46699999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.399000</v>
+        <v>-102.399</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>69400.253981</v>
+        <v>69400.253981000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.277848</v>
+        <v>19.277847999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.973000</v>
+        <v>994.97299999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>69411.335102</v>
+        <v>69411.335101999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.280926</v>
+        <v>19.280926000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.482000</v>
+        <v>-142.482</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>69421.990690</v>
+        <v>69421.990690000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.283886</v>
+        <v>19.283885999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.680000</v>
+        <v>-226.68</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>69432.713698</v>
+        <v>69432.713698000007</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.286865</v>
+        <v>19.286864999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.087000</v>
+        <v>-361.08699999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>69443.601843</v>
+        <v>69443.601842999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.289889</v>
+        <v>19.289888999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.471000</v>
+        <v>-567.471</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>69453.999973</v>
+        <v>69453.999972999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.292778</v>
+        <v>19.292777999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.540000</v>
+        <v>1408.54</v>
       </c>
       <c r="BV8" s="1">
-        <v>-786.966000</v>
+        <v>-786.96600000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>69464.546905</v>
+        <v>69464.546904999996</v>
       </c>
       <c r="BY8" s="1">
         <v>19.295707</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.440000</v>
+        <v>1569.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1015.610000</v>
+        <v>-1015.61</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>69476.179576</v>
+        <v>69476.179575999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.298939</v>
+        <v>19.298939000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1971.390000</v>
+        <v>1971.39</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1550.320000</v>
+        <v>-1550.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>69306.258138</v>
+        <v>69306.258138000005</v>
       </c>
       <c r="B9" s="1">
         <v>19.251738</v>
       </c>
       <c r="C9" s="1">
-        <v>901.714000</v>
+        <v>901.71400000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-188.772000</v>
+        <v>-188.77199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>69316.596747</v>
+        <v>69316.596747000003</v>
       </c>
       <c r="G9" s="1">
-        <v>19.254610</v>
+        <v>19.25461</v>
       </c>
       <c r="H9" s="1">
-        <v>917.590000</v>
+        <v>917.59</v>
       </c>
       <c r="I9" s="1">
-        <v>-160.564000</v>
+        <v>-160.56399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>69327.316285</v>
+        <v>69327.316284999994</v>
       </c>
       <c r="L9" s="1">
-        <v>19.257588</v>
+        <v>19.257587999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>939.675000</v>
+        <v>939.67499999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.474000</v>
+        <v>-116.474</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>69337.829490</v>
+        <v>69337.829490000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.260508</v>
+        <v>19.260508000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>946.450000</v>
+        <v>946.45</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.933000</v>
+        <v>-101.93300000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>69348.367261</v>
+        <v>69348.367261000007</v>
       </c>
       <c r="V9" s="1">
-        <v>19.263435</v>
+        <v>19.263435000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.249000</v>
+        <v>953.24900000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.995600</v>
+        <v>-88.995599999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>69358.520628</v>
+        <v>69358.520627999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.266256</v>
+        <v>19.266255999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.744000</v>
+        <v>960.74400000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.967600</v>
+        <v>-79.967600000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>69369.044214</v>
+        <v>69369.044213999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.269179</v>
+        <v>19.269179000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.877000</v>
+        <v>965.87699999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.841500</v>
+        <v>-79.841499999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>69379.567335</v>
@@ -2385,210 +2801,210 @@
         <v>19.272102</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.176000</v>
+        <v>974.17600000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.576500</v>
+        <v>-87.576499999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>69389.930250</v>
+        <v>69389.930250000005</v>
       </c>
       <c r="AP9" s="1">
         <v>19.274981</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.481000</v>
+        <v>983.48099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>69400.645948</v>
+        <v>69400.645948000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.277957</v>
+        <v>19.277957000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.987000</v>
+        <v>994.98699999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>69411.695005</v>
+        <v>69411.695005000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.281026</v>
+        <v>19.281026000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.490000</v>
+        <v>-142.49</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>69422.376543</v>
+        <v>69422.376543000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.283993</v>
+        <v>19.283992999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.698000</v>
+        <v>-226.69800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>69433.402113</v>
+        <v>69433.402113000004</v>
       </c>
       <c r="BJ9" s="1">
         <v>19.287056</v>
       </c>
       <c r="BK9" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.077000</v>
+        <v>-361.077</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>69443.710505</v>
+        <v>69443.710504999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.289920</v>
+        <v>19.289919999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.447000</v>
+        <v>-567.447</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>69454.133398</v>
+        <v>69454.133398000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.292815</v>
+        <v>19.292815000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.720000</v>
+        <v>1408.72</v>
       </c>
       <c r="BV9" s="1">
-        <v>-786.816000</v>
+        <v>-786.81600000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>69464.971976</v>
+        <v>69464.971976000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.295826</v>
+        <v>19.295826000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.390000</v>
+        <v>1569.39</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1015.590000</v>
+        <v>-1015.59</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>69476.700871</v>
+        <v>69476.700870999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.299084</v>
+        <v>19.299084000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1972.670000</v>
+        <v>1972.67</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1549.170000</v>
+        <v>-1549.17</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>69306.519528</v>
+        <v>69306.519528000004</v>
       </c>
       <c r="B10" s="1">
         <v>19.251811</v>
       </c>
       <c r="C10" s="1">
-        <v>901.820000</v>
+        <v>901.82</v>
       </c>
       <c r="D10" s="1">
-        <v>-188.613000</v>
+        <v>-188.613</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>69316.875003</v>
+        <v>69316.875002999994</v>
       </c>
       <c r="G10" s="1">
-        <v>19.254688</v>
+        <v>19.254688000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>917.874000</v>
+        <v>917.87400000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-160.689000</v>
+        <v>-160.68899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>69327.661997</v>
+        <v>69327.661997000003</v>
       </c>
       <c r="L10" s="1">
-        <v>19.257684</v>
+        <v>19.257684000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.822000</v>
+        <v>939.822</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.483000</v>
+        <v>-116.483</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>69338.179199</v>
+        <v>69338.179199000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.260605</v>
+        <v>19.260605000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>946.478000</v>
+        <v>946.47799999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.979000</v>
+        <v>-101.979</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>69348.711249</v>
@@ -2597,88 +3013,88 @@
         <v>19.263531</v>
       </c>
       <c r="W10" s="1">
-        <v>953.216000</v>
+        <v>953.21600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.025400</v>
+        <v>-89.025400000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>69359.217972</v>
+        <v>69359.217971999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.266449</v>
+        <v>19.266449000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.777000</v>
+        <v>960.77700000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.971300</v>
+        <v>-79.971299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>69369.731187</v>
+        <v>69369.731186999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.269370</v>
+        <v>19.269369999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.952000</v>
+        <v>965.952</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.729000</v>
+        <v>-79.728999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>69379.914537</v>
+        <v>69379.914537000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.272198</v>
+        <v>19.272197999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.149000</v>
+        <v>974.149</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.589900</v>
+        <v>-87.5899</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>69390.294810</v>
+        <v>69390.294810000007</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.275082</v>
+        <v>19.275082000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.487000</v>
+        <v>983.48699999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>69401.009916</v>
+        <v>69401.009915999995</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.278058</v>
+        <v>19.278058000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.988000</v>
+        <v>994.98800000000006</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.837000</v>
+        <v>-123.837</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>69412.362813</v>
@@ -2687,345 +3103,345 @@
         <v>19.281212</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.481000</v>
+        <v>-142.48099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>69423.068462</v>
+        <v>69423.068461999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.284186</v>
+        <v>19.284185999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.676000</v>
+        <v>-226.67599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>69433.873313</v>
+        <v>69433.873313000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.287187</v>
+        <v>19.287186999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1130.290000</v>
+        <v>1130.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.080000</v>
+        <v>-361.08</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>69444.112226</v>
+        <v>69444.112225999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.290031</v>
+        <v>19.290030999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.502000</v>
+        <v>-567.50199999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>69454.570868</v>
+        <v>69454.570867999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.292936</v>
+        <v>19.292936000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-786.731000</v>
+        <v>-786.73099999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>69465.391096</v>
+        <v>69465.391096000007</v>
       </c>
       <c r="BY10" s="1">
         <v>19.295942</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1569.370000</v>
+        <v>1569.37</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1015.640000</v>
+        <v>-1015.64</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>69477.217241</v>
+        <v>69477.217241000006</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.299227</v>
+        <v>19.299226999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1972.370000</v>
+        <v>1972.37</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1549.640000</v>
+        <v>-1549.64</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>69306.862761</v>
+        <v>69306.862760999997</v>
       </c>
       <c r="B11" s="1">
-        <v>19.251906</v>
+        <v>19.251906000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>901.776000</v>
+        <v>901.77599999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-188.768000</v>
+        <v>-188.768</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>69317.220218</v>
+        <v>69317.220218000002</v>
       </c>
       <c r="G11" s="1">
         <v>19.254783</v>
       </c>
       <c r="H11" s="1">
-        <v>918.129000</v>
+        <v>918.12900000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-160.404000</v>
+        <v>-160.404</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>69328.007253</v>
+        <v>69328.007253000003</v>
       </c>
       <c r="L11" s="1">
-        <v>19.257780</v>
+        <v>19.25778</v>
       </c>
       <c r="M11" s="1">
-        <v>939.706000</v>
+        <v>939.70600000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.408000</v>
+        <v>-116.408</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>69338.875085</v>
+        <v>69338.875085000007</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.260799</v>
+        <v>19.260798999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.444000</v>
+        <v>946.44399999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.000000</v>
+        <v>-102</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>69349.397681</v>
+        <v>69349.397681000002</v>
       </c>
       <c r="V11" s="1">
-        <v>19.263722</v>
+        <v>19.263722000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>953.103000</v>
+        <v>953.10299999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.962700</v>
+        <v>-88.962699999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>69359.565171</v>
+        <v>69359.565170999995</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.266546</v>
+        <v>19.266546000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.771000</v>
+        <v>960.77099999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.022900</v>
+        <v>-80.022900000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>69370.073910</v>
+        <v>69370.073910000006</v>
       </c>
       <c r="AF11" s="1">
         <v>19.269465</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.155000</v>
+        <v>966.15499999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.677900</v>
+        <v>-79.677899999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>69380.263720</v>
+        <v>69380.263720000003</v>
       </c>
       <c r="AK11" s="1">
         <v>19.272295</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.155000</v>
+        <v>974.15499999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.595700</v>
+        <v>-87.595699999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>69390.967912</v>
+        <v>69390.967911999993</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.275269</v>
+        <v>19.275269000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.521000</v>
+        <v>983.52099999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.435000</v>
+        <v>-102.435</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>69401.685963</v>
+        <v>69401.685962999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.278246</v>
+        <v>19.278245999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.988000</v>
+        <v>994.98800000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>69412.772044</v>
+        <v>69412.772043999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.281326</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.480000</v>
+        <v>-142.47999999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>69423.458814</v>
+        <v>69423.458813999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.284294</v>
+        <v>19.284293999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.678000</v>
+        <v>-226.678</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>69434.264687</v>
+        <v>69434.264687000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.287296</v>
+        <v>19.287296000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.058000</v>
+        <v>-361.05799999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>69444.511026</v>
+        <v>69444.511025999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.290142</v>
+        <v>19.290141999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.517000</v>
+        <v>-567.51700000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>69455.001434</v>
+        <v>69455.001434000005</v>
       </c>
       <c r="BT11" s="1">
         <v>19.293056</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.880000</v>
+        <v>1408.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-786.753000</v>
+        <v>-786.75300000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>69465.845927</v>
+        <v>69465.845927000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.296068</v>
+        <v>19.296068000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.320000</v>
+        <v>1569.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1015.730000</v>
+        <v>-1015.73</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>69477.770246</v>
@@ -3034,1829 +3450,1829 @@
         <v>19.299381</v>
       </c>
       <c r="CE11" s="1">
-        <v>1971.770000</v>
+        <v>1971.77</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1549.870000</v>
+        <v>-1549.87</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>69307.204301</v>
+        <v>69307.204301000005</v>
       </c>
       <c r="B12" s="1">
         <v>19.252001</v>
       </c>
       <c r="C12" s="1">
-        <v>901.782000</v>
+        <v>901.78200000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-188.768000</v>
+        <v>-188.768</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>69317.564442</v>
+        <v>69317.564442000003</v>
       </c>
       <c r="G12" s="1">
-        <v>19.254879</v>
+        <v>19.254878999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>918.051000</v>
+        <v>918.05100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-160.428000</v>
+        <v>-160.428</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>69328.701612</v>
+        <v>69328.701612000004</v>
       </c>
       <c r="L12" s="1">
         <v>19.257973</v>
       </c>
       <c r="M12" s="1">
-        <v>939.772000</v>
+        <v>939.77200000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.361000</v>
+        <v>-116.361</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>69339.223741</v>
+        <v>69339.223740999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.260895</v>
+        <v>19.260895000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.413000</v>
+        <v>946.41300000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.997000</v>
+        <v>-101.997</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>69349.740452</v>
+        <v>69349.740451999998</v>
       </c>
       <c r="V12" s="1">
         <v>19.263817</v>
       </c>
       <c r="W12" s="1">
-        <v>953.248000</v>
+        <v>953.24800000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.031100</v>
+        <v>-89.031099999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>69359.913362</v>
+        <v>69359.913362000007</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.266643</v>
+        <v>19.266642999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.757000</v>
+        <v>960.75699999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.984700</v>
+        <v>-79.984700000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>69370.421140</v>
+        <v>69370.421140000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.269561</v>
+        <v>19.269560999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.967000</v>
+        <v>965.96699999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.791800</v>
+        <v>-79.791799999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>69380.922408</v>
+        <v>69380.922407999999</v>
       </c>
       <c r="AK12" s="1">
         <v>19.272478</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.170000</v>
+        <v>974.17</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.590900</v>
+        <v>-87.590900000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>69391.394936</v>
+        <v>69391.394935999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.275387</v>
+        <v>19.275386999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.491000</v>
+        <v>983.49099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>69402.102602</v>
+        <v>69402.102601999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.278362</v>
+        <v>19.278362000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.984000</v>
+        <v>994.98400000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>69413.162397</v>
+        <v>69413.162396999993</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.281434</v>
+        <v>19.281434000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.497000</v>
+        <v>-142.49700000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>69423.818414</v>
+        <v>69423.818413999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.284394</v>
+        <v>19.284393999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1050.320000</v>
+        <v>1050.32</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.685000</v>
+        <v>-226.685</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>69434.640127</v>
+        <v>69434.640127000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.287400</v>
+        <v>19.287400000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.058000</v>
+        <v>-361.05799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>69444.934099</v>
+        <v>69444.934099000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.290259</v>
+        <v>19.290258999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.476000</v>
+        <v>-567.476</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>69455.414067</v>
+        <v>69455.414067000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.293171</v>
+        <v>19.293171000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.010000</v>
+        <v>1409.01</v>
       </c>
       <c r="BV12" s="1">
-        <v>-786.713000</v>
+        <v>-786.71299999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>69466.290341</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.296192</v>
+        <v>19.296192000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1569.180000</v>
+        <v>1569.18</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1015.610000</v>
+        <v>-1015.61</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>69478.298487</v>
+        <v>69478.298486999993</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.299527</v>
+        <v>19.299527000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1972.560000</v>
+        <v>1972.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1548.700000</v>
+        <v>-1548.7</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>69307.883030</v>
+        <v>69307.883029999997</v>
       </c>
       <c r="B13" s="1">
-        <v>19.252190</v>
+        <v>19.252189999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>901.870000</v>
+        <v>901.87</v>
       </c>
       <c r="D13" s="1">
-        <v>-188.817000</v>
+        <v>-188.81700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>69318.252425</v>
+        <v>69318.252424999999</v>
       </c>
       <c r="G13" s="1">
-        <v>19.255070</v>
+        <v>19.25507</v>
       </c>
       <c r="H13" s="1">
-        <v>918.225000</v>
+        <v>918.22500000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-160.903000</v>
+        <v>-160.90299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>69329.048810</v>
+        <v>69329.048809999993</v>
       </c>
       <c r="L13" s="1">
-        <v>19.258069</v>
+        <v>19.258068999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>939.694000</v>
+        <v>939.69399999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.405000</v>
+        <v>-116.405</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>69339.569949</v>
+        <v>69339.569948999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.260992</v>
+        <v>19.260992000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>946.378000</v>
+        <v>946.37800000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.952000</v>
+        <v>-101.952</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>69350.085632</v>
+        <v>69350.085632000002</v>
       </c>
       <c r="V13" s="1">
-        <v>19.263913</v>
+        <v>19.263912999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.164000</v>
+        <v>953.16399999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.988500</v>
+        <v>-88.988500000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>69360.571058</v>
+        <v>69360.571058000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.266825</v>
+        <v>19.266825000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.850000</v>
+        <v>960.85</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.972600</v>
+        <v>-79.9726</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>69371.087731</v>
+        <v>69371.087731000007</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.269747</v>
+        <v>19.269746999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.047000</v>
+        <v>966.04700000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.826200</v>
+        <v>-79.8262</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>69381.310774</v>
+        <v>69381.310773999998</v>
       </c>
       <c r="AK13" s="1">
         <v>19.272586</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.162000</v>
+        <v>974.16200000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.584400</v>
+        <v>-87.584400000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>69391.752553</v>
+        <v>69391.752552999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.275487</v>
+        <v>19.275486999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.479000</v>
+        <v>983.47900000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.432000</v>
+        <v>-102.432</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>69402.469642</v>
+        <v>69402.469641999996</v>
       </c>
       <c r="AU13" s="1">
         <v>19.278464</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.992000</v>
+        <v>994.99199999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.834000</v>
+        <v>-123.834</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>69413.518010</v>
+        <v>69413.51801</v>
       </c>
       <c r="AZ13" s="1">
         <v>19.281533</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.469000</v>
+        <v>-142.46899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>69424.180493</v>
+        <v>69424.180493000007</v>
       </c>
       <c r="BE13" s="1">
         <v>19.284495</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.679000</v>
+        <v>-226.679</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>69435.071151</v>
+        <v>69435.071150999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.287520</v>
+        <v>19.287520000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1130.250000</v>
+        <v>1130.25</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.060000</v>
+        <v>-361.06</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>69445.328913</v>
+        <v>69445.328913000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.290369</v>
+        <v>19.290368999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.513000</v>
+        <v>-567.51300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>69455.840998</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.293289</v>
+        <v>19.293289000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.120000</v>
+        <v>1409.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-786.742000</v>
+        <v>-786.74199999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>69466.727349</v>
+        <v>69466.727348999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.296313</v>
+        <v>19.296313000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.390000</v>
+        <v>1569.39</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1015.720000</v>
+        <v>-1015.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>69478.818293</v>
+        <v>69478.818293000004</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.299672</v>
+        <v>19.299672000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1971.480000</v>
+        <v>1971.48</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1547.770000</v>
+        <v>-1547.77</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>69308.227751</v>
+        <v>69308.227750999999</v>
       </c>
       <c r="B14" s="1">
-        <v>19.252285</v>
+        <v>19.252285000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>901.950000</v>
+        <v>901.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-188.851000</v>
+        <v>-188.851</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>69318.598104</v>
+        <v>69318.598104000004</v>
       </c>
       <c r="G14" s="1">
-        <v>19.255166</v>
+        <v>19.255165999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>917.991000</v>
+        <v>917.99099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-160.490000</v>
+        <v>-160.49</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>69329.393559</v>
+        <v>69329.393559000004</v>
       </c>
       <c r="L14" s="1">
-        <v>19.258165</v>
+        <v>19.258165000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>939.835000</v>
+        <v>939.83500000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.264000</v>
+        <v>-116.264</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>69340.226190</v>
+        <v>69340.226190000001</v>
       </c>
       <c r="Q14" s="1">
         <v>19.261174</v>
       </c>
       <c r="R14" s="1">
-        <v>946.435000</v>
+        <v>946.43499999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>69350.741343</v>
+        <v>69350.741343000002</v>
       </c>
       <c r="V14" s="1">
-        <v>19.264095</v>
+        <v>19.264095000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>953.193000</v>
+        <v>953.19299999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.076800</v>
+        <v>-89.076800000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>69360.959920</v>
+        <v>69360.959919999994</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.266933</v>
+        <v>19.266933000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.873000</v>
+        <v>960.87300000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.960300</v>
+        <v>-79.960300000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>69371.457251</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.269849</v>
+        <v>19.269849000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.060000</v>
+        <v>966.06</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.692500</v>
+        <v>-79.692499999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>69381.659957</v>
+        <v>69381.659956999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.272683</v>
+        <v>19.272683000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.144000</v>
+        <v>974.14400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.582200</v>
+        <v>-87.5822</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>69392.113362</v>
+        <v>69392.113362000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.275587</v>
+        <v>19.275587000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.497000</v>
+        <v>983.49699999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>69402.837145</v>
+        <v>69402.837144999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.278566</v>
+        <v>19.278566000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.968000</v>
+        <v>994.96799999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>69413.935162</v>
+        <v>69413.935161999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.281649</v>
+        <v>19.281649000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.483000</v>
+        <v>-142.483</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>69424.626396</v>
+        <v>69424.626396000007</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.284618</v>
+        <v>19.284617999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1050.320000</v>
+        <v>1050.32</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.677000</v>
+        <v>-226.67699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>69435.389086</v>
+        <v>69435.389085999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.287608</v>
+        <v>19.287607999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.091000</v>
+        <v>-361.09100000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>69445.752032</v>
+        <v>69445.752032000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.290487</v>
+        <v>19.290486999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.505000</v>
+        <v>-567.505</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>69456.271186</v>
+        <v>69456.271185999998</v>
       </c>
       <c r="BT14" s="1">
         <v>19.293409</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.170000</v>
+        <v>1409.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-786.822000</v>
+        <v>-786.822</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>69467.147429</v>
+        <v>69467.147429000004</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.296430</v>
+        <v>19.296430000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1569.380000</v>
+        <v>1569.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1015.710000</v>
+        <v>-1015.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>69479.336117</v>
+        <v>69479.336116999999</v>
       </c>
       <c r="CD14" s="1">
         <v>19.299816</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.340000</v>
+        <v>1970.34</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1549.110000</v>
+        <v>-1549.11</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>69308.569991</v>
+        <v>69308.569990999997</v>
       </c>
       <c r="B15" s="1">
         <v>19.252381</v>
       </c>
       <c r="C15" s="1">
-        <v>901.939000</v>
+        <v>901.93899999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-188.848000</v>
+        <v>-188.84800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>69318.950265</v>
+        <v>69318.950265000007</v>
       </c>
       <c r="G15" s="1">
         <v>19.255264</v>
       </c>
       <c r="H15" s="1">
-        <v>917.174000</v>
+        <v>917.17399999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-160.645000</v>
+        <v>-160.64500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>69330.047753</v>
+        <v>69330.047753000006</v>
       </c>
       <c r="L15" s="1">
-        <v>19.258347</v>
+        <v>19.258347000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>939.927000</v>
+        <v>939.92700000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.409000</v>
+        <v>-116.40900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>69340.627933</v>
+        <v>69340.627932999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.261286</v>
+        <v>19.261285999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>946.460000</v>
+        <v>946.46</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.940000</v>
+        <v>-101.94</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>69351.115822</v>
+        <v>69351.115822000007</v>
       </c>
       <c r="V15" s="1">
-        <v>19.264199</v>
+        <v>19.264199000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.181000</v>
+        <v>953.18100000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.017600</v>
+        <v>-89.017600000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>69361.309601</v>
+        <v>69361.309601000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.267030</v>
+        <v>19.267029999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.852000</v>
+        <v>960.85199999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.992000</v>
+        <v>-79.992000000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>69371.803459</v>
+        <v>69371.803459000002</v>
       </c>
       <c r="AF15" s="1">
         <v>19.269945</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.806000</v>
+        <v>965.80600000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.632800</v>
+        <v>-79.632800000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>69382.005669</v>
+        <v>69382.005669000006</v>
       </c>
       <c r="AK15" s="1">
         <v>19.272779</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.172000</v>
+        <v>974.17200000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.593400</v>
+        <v>-87.593400000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>69392.530775</v>
+        <v>69392.530775000007</v>
       </c>
       <c r="AP15" s="1">
         <v>19.275703</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.498000</v>
+        <v>983.49800000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.438000</v>
+        <v>-102.438</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>69403.258746</v>
+        <v>69403.258746000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.278683</v>
+        <v>19.278683000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.980000</v>
+        <v>994.98</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.832000</v>
+        <v>-123.83199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>69414.236202</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.281732</v>
+        <v>19.281732000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.482000</v>
+        <v>-142.482</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>69424.902670</v>
+        <v>69424.902669999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.284695</v>
+        <v>19.284694999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.692000</v>
+        <v>-226.69200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>69435.774479</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.287715</v>
+        <v>19.287714999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.071000</v>
+        <v>-361.07100000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>69446.146854</v>
+        <v>69446.146854000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.290596</v>
+        <v>19.290596000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.507000</v>
+        <v>-567.50699999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>69456.679908</v>
+        <v>69456.679908000006</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.293522</v>
+        <v>19.293521999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.220000</v>
+        <v>1409.22</v>
       </c>
       <c r="BV15" s="1">
-        <v>-786.933000</v>
+        <v>-786.93299999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>69467.575508</v>
+        <v>69467.575507999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.296549</v>
+        <v>19.296548999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.370000</v>
+        <v>1569.37</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1015.670000</v>
+        <v>-1015.67</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>69479.852979</v>
+        <v>69479.852979000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.299959</v>
+        <v>19.299959000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1970.520000</v>
+        <v>1970.52</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1548.740000</v>
+        <v>-1548.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>69309.231189</v>
+        <v>69309.231188999998</v>
       </c>
       <c r="B16" s="1">
         <v>19.252564</v>
       </c>
       <c r="C16" s="1">
-        <v>901.824000</v>
+        <v>901.82399999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-188.744000</v>
+        <v>-188.744</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>69319.595561</v>
+        <v>69319.595560999995</v>
       </c>
       <c r="G16" s="1">
         <v>19.255443</v>
       </c>
       <c r="H16" s="1">
-        <v>917.870000</v>
+        <v>917.87</v>
       </c>
       <c r="I16" s="1">
-        <v>-160.129000</v>
+        <v>-160.12899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>69330.428713</v>
+        <v>69330.428713000001</v>
       </c>
       <c r="L16" s="1">
-        <v>19.258452</v>
+        <v>19.258451999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>939.733000</v>
+        <v>939.73299999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.297000</v>
+        <v>-116.297</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>69340.966187</v>
+        <v>69340.966186999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.261379</v>
+        <v>19.261379000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>946.440000</v>
+        <v>946.44</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.021000</v>
+        <v>-102.021</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>69351.460573</v>
+        <v>69351.460573000004</v>
       </c>
       <c r="V16" s="1">
-        <v>19.264295</v>
+        <v>19.264295000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.135000</v>
+        <v>953.13499999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.945900</v>
+        <v>-88.945899999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>69361.657331</v>
+        <v>69361.657330999995</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.267127</v>
+        <v>19.267126999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.731000</v>
+        <v>960.73099999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.977600</v>
+        <v>-79.977599999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>69372.147684</v>
+        <v>69372.147683999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.270041</v>
+        <v>19.270040999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.799000</v>
+        <v>965.79899999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.768200</v>
+        <v>-79.768199999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>69382.421320</v>
+        <v>69382.421319999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.272895</v>
+        <v>19.272894999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.170000</v>
+        <v>974.17</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.565400</v>
+        <v>-87.565399999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>69392.833336</v>
+        <v>69392.833335999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.275787</v>
+        <v>19.275787000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.510000</v>
+        <v>983.51</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.411000</v>
+        <v>-102.411</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>69403.564280</v>
+        <v>69403.564280000006</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.278768</v>
+        <v>19.278767999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.978000</v>
+        <v>994.97799999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>69414.597787</v>
+        <v>69414.597787000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.281833</v>
+        <v>19.281832999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.477000</v>
+        <v>-142.477</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>69425.264749</v>
+        <v>69425.264748999994</v>
       </c>
       <c r="BE16" s="1">
         <v>19.284796</v>
       </c>
       <c r="BF16" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.693000</v>
+        <v>-226.69300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>69436.161885</v>
+        <v>69436.161884999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.287823</v>
+        <v>19.287822999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1130.290000</v>
+        <v>1130.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.077000</v>
+        <v>-361.077</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>69446.568911</v>
+        <v>69446.568910999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.290714</v>
+        <v>19.290714000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.490000</v>
+        <v>-567.49</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>69457.113361</v>
+        <v>69457.113360999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.293643</v>
+        <v>19.293642999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.068000</v>
+        <v>-787.06799999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>69468.023363</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.296673</v>
+        <v>19.296672999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1569.430000</v>
+        <v>1569.43</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1015.600000</v>
+        <v>-1015.6</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>69480.407504</v>
+        <v>69480.407504000003</v>
       </c>
       <c r="CD16" s="1">
         <v>19.300113</v>
       </c>
       <c r="CE16" s="1">
-        <v>1971.590000</v>
+        <v>1971.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1547.700000</v>
+        <v>-1547.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>69309.594261</v>
+        <v>69309.594261000006</v>
       </c>
       <c r="B17" s="1">
         <v>19.252665</v>
       </c>
       <c r="C17" s="1">
-        <v>901.788000</v>
+        <v>901.78800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-188.693000</v>
+        <v>-188.69300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>69320.003270</v>
+        <v>69320.003270000001</v>
       </c>
       <c r="G17" s="1">
-        <v>19.255556</v>
+        <v>19.255555999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.378000</v>
+        <v>917.37800000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-160.735000</v>
+        <v>-160.73500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>69330.773401</v>
+        <v>69330.773400999999</v>
       </c>
       <c r="L17" s="1">
-        <v>19.258548</v>
+        <v>19.258548000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.790000</v>
+        <v>939.79</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.470000</v>
+        <v>-116.47</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>69341.315868</v>
+        <v>69341.315868000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.261477</v>
+        <v>19.261476999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.427000</v>
+        <v>946.42700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>69351.810253</v>
+        <v>69351.810253000003</v>
       </c>
       <c r="V17" s="1">
-        <v>19.264392</v>
+        <v>19.264392000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.218000</v>
+        <v>953.21799999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.922000</v>
+        <v>-88.921999999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>69362.069997</v>
+        <v>69362.069996999999</v>
       </c>
       <c r="AA17" s="1">
         <v>19.267242</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.814000</v>
+        <v>960.81399999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.077100</v>
+        <v>-80.077100000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>69372.610982</v>
+        <v>69372.610981999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.270170</v>
+        <v>19.27017</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.002000</v>
+        <v>966.00199999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.756300</v>
+        <v>-79.756299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>69382.716435</v>
+        <v>69382.716434999995</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.272977</v>
+        <v>19.272977000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.175000</v>
+        <v>974.17499999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.583400</v>
+        <v>-87.583399999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>69393.193926</v>
+        <v>69393.193926000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.275887</v>
+        <v>19.275887000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.490000</v>
+        <v>983.49</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.395000</v>
+        <v>-102.395</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>69403.927886</v>
+        <v>69403.927886000005</v>
       </c>
       <c r="AU17" s="1">
         <v>19.278869</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.993000</v>
+        <v>994.99300000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.865000</v>
+        <v>-123.86499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>69414.955401</v>
+        <v>69414.955400999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.281932</v>
+        <v>19.281932000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.465000</v>
+        <v>-142.465</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>69425.986462</v>
+        <v>69425.986462000001</v>
       </c>
       <c r="BE17" s="1">
         <v>19.284996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.678000</v>
+        <v>-226.678</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>69436.914285</v>
+        <v>69436.914285000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.288032</v>
+        <v>19.288032000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.093000</v>
+        <v>-361.09300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>69446.965215</v>
+        <v>69446.965215000004</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.290824</v>
+        <v>19.290824000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.950000</v>
+        <v>1261.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.544000</v>
+        <v>-567.54399999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>69457.540914</v>
+        <v>69457.540913999997</v>
       </c>
       <c r="BT17" s="1">
         <v>19.293761</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.310000</v>
+        <v>1409.31</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.149000</v>
+        <v>-787.149</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>69468.441490</v>
+        <v>69468.441489999997</v>
       </c>
       <c r="BY17" s="1">
         <v>19.296789</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1569.370000</v>
+        <v>1569.37</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1015.720000</v>
+        <v>-1015.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>69481.252161</v>
+        <v>69481.252160999997</v>
       </c>
       <c r="CD17" s="1">
         <v>19.300348</v>
       </c>
       <c r="CE17" s="1">
-        <v>1970.470000</v>
+        <v>1970.47</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1549.040000</v>
+        <v>-1549.04</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>69309.938979</v>
+        <v>69309.938978999999</v>
       </c>
       <c r="B18" s="1">
         <v>19.252761</v>
       </c>
       <c r="C18" s="1">
-        <v>901.845000</v>
+        <v>901.84500000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-188.810000</v>
+        <v>-188.81</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>69320.343031</v>
+        <v>69320.343030999997</v>
       </c>
       <c r="G18" s="1">
         <v>19.255651</v>
       </c>
       <c r="H18" s="1">
-        <v>918.388000</v>
+        <v>918.38800000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-160.672000</v>
+        <v>-160.672</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>69331.121593</v>
+        <v>69331.121593000003</v>
       </c>
       <c r="L18" s="1">
-        <v>19.258645</v>
+        <v>19.258645000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.699000</v>
+        <v>939.69899999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.386000</v>
+        <v>-116.386</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>69341.740937</v>
+        <v>69341.740936999995</v>
       </c>
       <c r="Q18" s="1">
         <v>19.261595</v>
       </c>
       <c r="R18" s="1">
-        <v>946.390000</v>
+        <v>946.39</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.985000</v>
+        <v>-101.985</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>69352.242237</v>
+        <v>69352.242236999999</v>
       </c>
       <c r="V18" s="1">
         <v>19.264512</v>
       </c>
       <c r="W18" s="1">
-        <v>953.202000</v>
+        <v>953.202</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.961300</v>
+        <v>-88.961299999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>69362.363102</v>
+        <v>69362.363102000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.267323</v>
+        <v>19.267323000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.795000</v>
+        <v>960.79499999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.043500</v>
+        <v>-80.043499999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>69372.844562</v>
+        <v>69372.844561999998</v>
       </c>
       <c r="AF18" s="1">
         <v>19.270235</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.130000</v>
+        <v>966.13</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.705100</v>
+        <v>-79.705100000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>69383.062147</v>
+        <v>69383.062147000004</v>
       </c>
       <c r="AK18" s="1">
         <v>19.273073</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.192000</v>
+        <v>974.19200000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.585500</v>
+        <v>-87.585499999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>69393.554021</v>
+        <v>69393.554021000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.275987</v>
+        <v>19.275987000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.492000</v>
+        <v>983.49199999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.419000</v>
+        <v>-102.419</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>69404.293400</v>
+        <v>69404.293399999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.278970</v>
+        <v>19.278970000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.980000</v>
+        <v>994.98</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.861000</v>
+        <v>-123.861</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>69415.676585</v>
+        <v>69415.676584999994</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.282132</v>
+        <v>19.282132000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.495000</v>
+        <v>-142.495</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>69426.346057</v>
+        <v>69426.346057000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.285096</v>
+        <v>19.285095999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.702000</v>
+        <v>-226.702</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>69437.316539</v>
+        <v>69437.316539000007</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.288143</v>
+        <v>19.288143000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1130.270000</v>
+        <v>1130.27</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.098000</v>
+        <v>-361.09800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>69447.384347</v>
+        <v>69447.384346999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.290940</v>
+        <v>19.290939999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.531000</v>
+        <v>-567.53099999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>69457.953125</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.293876</v>
+        <v>19.293876000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.270000</v>
+        <v>1409.27</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.281000</v>
+        <v>-787.28099999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>69469.194913</v>
+        <v>69469.194912999999</v>
       </c>
       <c r="BY18" s="1">
         <v>19.296999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1569.320000</v>
+        <v>1569.32</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1015.720000</v>
+        <v>-1015.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>69481.484785</v>
+        <v>69481.484784999993</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.300412</v>
+        <v>19.300412000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1972.180000</v>
+        <v>1972.18</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1549.890000</v>
+        <v>-1549.89</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>69310.283171</v>
+        <v>69310.283171000003</v>
       </c>
       <c r="B19" s="1">
-        <v>19.252856</v>
+        <v>19.252856000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>901.874000</v>
+        <v>901.87400000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-188.727000</v>
+        <v>-188.727</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>69321.002213</v>
@@ -4865,148 +5281,148 @@
         <v>19.255834</v>
       </c>
       <c r="H19" s="1">
-        <v>918.480000</v>
+        <v>918.48</v>
       </c>
       <c r="I19" s="1">
-        <v>-160.509000</v>
+        <v>-160.50899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>69331.539260</v>
+        <v>69331.539260000005</v>
       </c>
       <c r="L19" s="1">
         <v>19.258761</v>
       </c>
       <c r="M19" s="1">
-        <v>939.699000</v>
+        <v>939.69899999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.407000</v>
+        <v>-116.407</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>69342.023657</v>
+        <v>69342.023656999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.261673</v>
+        <v>19.261672999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>946.398000</v>
+        <v>946.39800000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>69352.509580</v>
+        <v>69352.509579999998</v>
       </c>
       <c r="V19" s="1">
-        <v>19.264586</v>
+        <v>19.264586000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.100000</v>
+        <v>953.1</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.937400</v>
+        <v>-88.937399999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>69362.711822</v>
+        <v>69362.711821999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.267420</v>
+        <v>19.267420000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.732000</v>
+        <v>960.73199999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.989400</v>
+        <v>-79.989400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69373.190272</v>
+        <v>69373.190272000007</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.270331</v>
+        <v>19.270330999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.885000</v>
+        <v>965.88499999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.894400</v>
+        <v>-79.894400000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>69383.411828</v>
+        <v>69383.411827999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.273170</v>
+        <v>19.27317</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.159000</v>
+        <v>974.15899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.585800</v>
+        <v>-87.585800000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>69394.273221</v>
+        <v>69394.273220999996</v>
       </c>
       <c r="AP19" s="1">
         <v>19.276187</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.477000</v>
+        <v>983.47699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.401000</v>
+        <v>-102.401</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>69405.024503</v>
+        <v>69405.024502999993</v>
       </c>
       <c r="AU19" s="1">
         <v>19.279173</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.986000</v>
+        <v>994.98599999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>69416.051096</v>
+        <v>69416.051095999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.282236</v>
+        <v>19.282236000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.720000</v>
+        <v>1004.72</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.483000</v>
+        <v>-142.483</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>69426.709099</v>
@@ -5015,784 +5431,784 @@
         <v>19.285197</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.320000</v>
+        <v>1050.32</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.690000</v>
+        <v>-226.69</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>69437.692509</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.288248</v>
+        <v>19.288247999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.080000</v>
+        <v>-361.08</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>69448.087661</v>
+        <v>69448.087660999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.291135</v>
+        <v>19.291135000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.496000</v>
+        <v>-567.49599999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>69458.686175</v>
+        <v>69458.686174999995</v>
       </c>
       <c r="BT19" s="1">
         <v>19.294079</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.383000</v>
+        <v>-787.38300000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>69469.335777</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.297038</v>
+        <v>19.297038000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.490000</v>
+        <v>1569.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1015.570000</v>
+        <v>-1015.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>69482.018480</v>
+        <v>69482.018479999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.300561</v>
+        <v>19.300560999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1971.330000</v>
+        <v>1971.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1547.970000</v>
+        <v>-1547.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>69310.710725</v>
+        <v>69310.710724999997</v>
       </c>
       <c r="B20" s="1">
-        <v>19.252975</v>
+        <v>19.252974999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>901.761000</v>
+        <v>901.76099999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-188.736000</v>
+        <v>-188.73599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>69321.374215</v>
+        <v>69321.374215000003</v>
       </c>
       <c r="G20" s="1">
-        <v>19.255937</v>
+        <v>19.255936999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>917.863000</v>
+        <v>917.86300000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-160.701000</v>
+        <v>-160.70099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>69331.832856</v>
+        <v>69331.832855999994</v>
       </c>
       <c r="L20" s="1">
-        <v>19.258842</v>
+        <v>19.258842000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.820000</v>
+        <v>939.82</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.377000</v>
+        <v>-116.377</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>69342.372870</v>
+        <v>69342.372870000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>19.261770</v>
+        <v>19.261769999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.451000</v>
+        <v>946.45100000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.956000</v>
+        <v>-101.956</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>69352.855788</v>
+        <v>69352.855788000001</v>
       </c>
       <c r="V20" s="1">
-        <v>19.264682</v>
+        <v>19.264682000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.213000</v>
+        <v>953.21299999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.909800</v>
+        <v>-88.909800000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>69363.060514</v>
+        <v>69363.060513999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.267517</v>
+        <v>19.267517000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.794000</v>
+        <v>960.79399999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.066700</v>
+        <v>-80.066699999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>69373.872767</v>
+        <v>69373.872766999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.270520</v>
+        <v>19.270520000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.962000</v>
+        <v>965.96199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.767000</v>
+        <v>-79.766999999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>69384.106722</v>
+        <v>69384.106721999997</v>
       </c>
       <c r="AK20" s="1">
         <v>19.273363</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.158000</v>
+        <v>974.15800000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.542200</v>
+        <v>-87.542199999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>69394.663573</v>
+        <v>69394.663572999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.276295</v>
+        <v>19.276295000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.514000</v>
+        <v>983.51400000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.410000</v>
+        <v>-102.41</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>69405.407911</v>
+        <v>69405.407911000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.279280</v>
+        <v>19.27928</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.007000</v>
+        <v>995.00699999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>69416.429543</v>
+        <v>69416.429543000006</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.282342</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.483000</v>
+        <v>-142.483</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>69427.391594</v>
+        <v>69427.391594000001</v>
       </c>
       <c r="BE20" s="1">
         <v>19.285387</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.687000</v>
+        <v>-226.68700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>69438.370074</v>
+        <v>69438.370074000006</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.288436</v>
+        <v>19.288436000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.057000</v>
+        <v>-361.05700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>69448.203725</v>
+        <v>69448.203724999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.291168</v>
+        <v>19.291167999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.529000</v>
+        <v>-567.529</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>69458.811169</v>
+        <v>69458.811168999993</v>
       </c>
       <c r="BT20" s="1">
         <v>19.294114</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.120000</v>
+        <v>1409.12</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.448000</v>
+        <v>-787.44799999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>69469.759360</v>
+        <v>69469.759359999996</v>
       </c>
       <c r="BY20" s="1">
         <v>19.297155</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.540000</v>
+        <v>1569.54</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1015.640000</v>
+        <v>-1015.64</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>69482.559649</v>
+        <v>69482.559649000003</v>
       </c>
       <c r="CD20" s="1">
         <v>19.300711</v>
       </c>
       <c r="CE20" s="1">
-        <v>1970.960000</v>
+        <v>1970.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1549.910000</v>
+        <v>-1549.91</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>69310.978067</v>
+        <v>69310.978067000004</v>
       </c>
       <c r="B21" s="1">
-        <v>19.253049</v>
+        <v>19.253049000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>901.713000</v>
+        <v>901.71299999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-188.638000</v>
+        <v>-188.63800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>69321.717976</v>
       </c>
       <c r="G21" s="1">
-        <v>19.256033</v>
+        <v>19.256032999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>917.707000</v>
+        <v>917.70699999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.008000</v>
+        <v>-160.00800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>69332.175591</v>
+        <v>69332.175591000007</v>
       </c>
       <c r="L21" s="1">
-        <v>19.258938</v>
+        <v>19.258938000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>939.763000</v>
+        <v>939.76300000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.266000</v>
+        <v>-116.26600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>69342.722059</v>
+        <v>69342.722059000007</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.261867</v>
+        <v>19.261866999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.477000</v>
+        <v>946.47699999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>69353.200190</v>
+        <v>69353.200190000003</v>
       </c>
       <c r="V21" s="1">
         <v>19.264778</v>
       </c>
       <c r="W21" s="1">
-        <v>953.120000</v>
+        <v>953.12</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.997300</v>
+        <v>-88.997299999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>69363.756399</v>
+        <v>69363.756399000005</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.267710</v>
+        <v>19.267710000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.729000</v>
+        <v>960.72900000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.054000</v>
+        <v>-80.054000000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>69374.218975</v>
+        <v>69374.218974999996</v>
       </c>
       <c r="AF21" s="1">
         <v>19.270616</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.912000</v>
+        <v>965.91200000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.799100</v>
+        <v>-79.799099999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>69384.456929</v>
+        <v>69384.456929000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.273460</v>
+        <v>19.27346</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.156000</v>
+        <v>974.15599999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.567700</v>
+        <v>-87.567700000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>69395.040037</v>
+        <v>69395.040036999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.276400</v>
+        <v>19.276399999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.502000</v>
+        <v>983.50199999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>69405.771973</v>
+        <v>69405.771972999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.279381</v>
+        <v>19.279381000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.004000</v>
+        <v>995.00400000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>69417.107047</v>
+        <v>69417.107046999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.282530</v>
+        <v>19.282530000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.483000</v>
+        <v>-142.483</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>69427.819641</v>
+        <v>69427.819640999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.285505</v>
+        <v>19.285505000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.320000</v>
+        <v>1050.32</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.672000</v>
+        <v>-226.672</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>69438.480650</v>
+        <v>69438.480649999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.288467</v>
+        <v>19.288467000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1130.290000</v>
+        <v>1130.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.090000</v>
+        <v>-361.09</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>69448.628332</v>
+        <v>69448.628331999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.291286</v>
+        <v>19.291285999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.523000</v>
+        <v>-567.52300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>69459.221854</v>
+        <v>69459.221854000003</v>
       </c>
       <c r="BT21" s="1">
         <v>19.294228</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.040000</v>
+        <v>1409.04</v>
       </c>
       <c r="BV21" s="1">
-        <v>-787.523000</v>
+        <v>-787.52300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>69470.206256</v>
+        <v>69470.206256000005</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.297280</v>
+        <v>19.297280000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1569.350000</v>
+        <v>1569.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1015.660000</v>
+        <v>-1015.66</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>69483.101298</v>
+        <v>69483.101297999994</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.300861</v>
+        <v>19.300861000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1972.590000</v>
+        <v>1972.59</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1548.740000</v>
+        <v>-1548.74</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>69311.320306</v>
+        <v>69311.320305999994</v>
       </c>
       <c r="B22" s="1">
         <v>19.253145</v>
       </c>
       <c r="C22" s="1">
-        <v>901.820000</v>
+        <v>901.82</v>
       </c>
       <c r="D22" s="1">
-        <v>-188.768000</v>
+        <v>-188.768</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>69322.063157</v>
+        <v>69322.063156999997</v>
       </c>
       <c r="G22" s="1">
-        <v>19.256129</v>
+        <v>19.256129000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.267000</v>
+        <v>918.26700000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-160.261000</v>
+        <v>-160.261</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>69332.521798</v>
+        <v>69332.521798000002</v>
       </c>
       <c r="L22" s="1">
         <v>19.259034</v>
       </c>
       <c r="M22" s="1">
-        <v>939.868000</v>
+        <v>939.86800000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.397000</v>
+        <v>-116.39700000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>69343.420393</v>
+        <v>69343.420392999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.262061</v>
+        <v>19.262060999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.427000</v>
+        <v>946.42700000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.979000</v>
+        <v>-101.979</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>69353.883500</v>
+        <v>69353.883499999996</v>
       </c>
       <c r="V22" s="1">
         <v>19.264968</v>
       </c>
       <c r="W22" s="1">
-        <v>953.229000</v>
+        <v>953.22900000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.977700</v>
+        <v>-88.977699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>69364.106541</v>
+        <v>69364.106541000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.267807</v>
+        <v>19.267807000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.781000</v>
+        <v>960.78099999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.053400</v>
+        <v>-80.053399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>69374.562704</v>
+        <v>69374.562703999996</v>
       </c>
       <c r="AF22" s="1">
         <v>19.270712</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.978000</v>
+        <v>965.97799999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.818700</v>
+        <v>-79.818700000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>69384.805089</v>
+        <v>69384.805089000001</v>
       </c>
       <c r="AK22" s="1">
         <v>19.273557</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.151000</v>
+        <v>974.15099999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.577800</v>
+        <v>-87.577799999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>69395.716115</v>
+        <v>69395.716115000003</v>
       </c>
       <c r="AP22" s="1">
         <v>19.276588</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.491000</v>
+        <v>983.49099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>69406.450005</v>
+        <v>69406.450005000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.279569</v>
+        <v>19.279568999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.989000</v>
+        <v>994.98900000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.830000</v>
+        <v>-123.83</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>69417.515271</v>
+        <v>69417.515270999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>19.282643</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.700000</v>
+        <v>1004.7</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.489000</v>
+        <v>-142.489</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>69428.179768</v>
+        <v>69428.179768000002</v>
       </c>
       <c r="BE22" s="1">
         <v>19.285605</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.692000</v>
+        <v>-226.69200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>69438.842741</v>
@@ -5801,195 +6217,195 @@
         <v>19.288567</v>
       </c>
       <c r="BK22" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.080000</v>
+        <v>-361.08</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>69449.023116</v>
+        <v>69449.023115999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.291395</v>
+        <v>19.291395000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.990000</v>
+        <v>1261.99</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.514000</v>
+        <v>-567.51400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>69459.654863</v>
+        <v>69459.654863000003</v>
       </c>
       <c r="BT22" s="1">
         <v>19.294349</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.910000</v>
+        <v>1408.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-787.417000</v>
+        <v>-787.41700000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>69470.639266</v>
+        <v>69470.639265999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.297400</v>
+        <v>19.2974</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.390000</v>
+        <v>1569.39</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1015.770000</v>
+        <v>-1015.77</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>69483.639415</v>
+        <v>69483.639414999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.301011</v>
+        <v>19.301010999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1970.740000</v>
+        <v>1970.74</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1548.480000</v>
+        <v>-1548.48</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>69311.664034</v>
+        <v>69311.664034000001</v>
       </c>
       <c r="B23" s="1">
-        <v>19.253240</v>
+        <v>19.253240000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>901.829000</v>
+        <v>901.82899999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-188.863000</v>
+        <v>-188.863</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>69322.752881</v>
+        <v>69322.752880999993</v>
       </c>
       <c r="G23" s="1">
-        <v>19.256320</v>
+        <v>19.256319999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.675000</v>
+        <v>917.67499999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-160.810000</v>
+        <v>-160.81</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>69333.210277</v>
+        <v>69333.210277000006</v>
       </c>
       <c r="L23" s="1">
-        <v>19.259225</v>
+        <v>19.259225000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>939.799000</v>
+        <v>939.79899999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.332000</v>
+        <v>-116.33199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>69343.766136</v>
+        <v>69343.766136000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.262157</v>
+        <v>19.262156999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>946.422000</v>
+        <v>946.42200000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.941000</v>
+        <v>-101.941</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>69354.227723</v>
+        <v>69354.227723000004</v>
       </c>
       <c r="V23" s="1">
-        <v>19.265063</v>
+        <v>19.265063000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.224000</v>
+        <v>953.22400000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.998800</v>
+        <v>-88.998800000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>69364.457213</v>
+        <v>69364.457213000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.267905</v>
+        <v>19.267904999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.780000</v>
+        <v>960.78</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.996200</v>
+        <v>-79.996200000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>69375.211502</v>
+        <v>69375.211502000006</v>
       </c>
       <c r="AF23" s="1">
         <v>19.270892</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.889000</v>
+        <v>965.88900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.738700</v>
+        <v>-79.738699999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>69385.472705</v>
+        <v>69385.472704999993</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.273742</v>
+        <v>19.273741999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.151000</v>
+        <v>974.15099999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.560300</v>
+        <v>-87.560299999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>69396.125816</v>
@@ -5998,195 +6414,195 @@
         <v>19.276702</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.488000</v>
+        <v>983.48800000000006</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>69406.914755</v>
+        <v>69406.914755000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.279699</v>
+        <v>19.279699000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.002000</v>
+        <v>995.00199999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>69417.891718</v>
+        <v>69417.891717999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.282748</v>
+        <v>19.282748000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.475000</v>
+        <v>-142.47499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>69428.539370</v>
+        <v>69428.539369999999</v>
       </c>
       <c r="BE23" s="1">
         <v>19.285705</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.692000</v>
+        <v>-226.69200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>69439.216713</v>
+        <v>69439.216713000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.288671</v>
+        <v>19.288671000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.056000</v>
+        <v>-361.05599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>69449.449181</v>
+        <v>69449.449181000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.291514</v>
+        <v>19.291513999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.000000</v>
+        <v>1262</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.526000</v>
+        <v>-567.52599999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>69460.094826</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.294471</v>
+        <v>19.294471000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.850000</v>
+        <v>1408.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-787.536000</v>
+        <v>-787.53599999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>69471.061359</v>
+        <v>69471.061358999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.297517</v>
+        <v>19.297516999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1569.420000</v>
+        <v>1569.42</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>69484.179585</v>
+        <v>69484.179585000005</v>
       </c>
       <c r="CD23" s="1">
         <v>19.301161</v>
       </c>
       <c r="CE23" s="1">
-        <v>1972.060000</v>
+        <v>1972.06</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1550.210000</v>
+        <v>-1550.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>69312.347552</v>
+        <v>69312.347552000007</v>
       </c>
       <c r="B24" s="1">
-        <v>19.253430</v>
+        <v>19.253430000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>901.742000</v>
+        <v>901.74199999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-188.798000</v>
+        <v>-188.798</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>69323.095826</v>
+        <v>69323.095826000004</v>
       </c>
       <c r="G24" s="1">
-        <v>19.256416</v>
+        <v>19.256416000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>918.222000</v>
+        <v>918.22199999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-160.806000</v>
+        <v>-160.80600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>69333.558969</v>
+        <v>69333.558969000005</v>
       </c>
       <c r="L24" s="1">
-        <v>19.259322</v>
+        <v>19.259322000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.714000</v>
+        <v>939.71400000000006</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.536000</v>
+        <v>-116.536</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>69344.117600</v>
+        <v>69344.117599999998</v>
       </c>
       <c r="Q24" s="1">
         <v>19.262255</v>
       </c>
       <c r="R24" s="1">
-        <v>946.415000</v>
+        <v>946.41499999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.952000</v>
+        <v>-101.952</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>69354.568969</v>
@@ -6195,709 +6611,710 @@
         <v>19.265158</v>
       </c>
       <c r="W24" s="1">
-        <v>953.139000</v>
+        <v>953.13900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.003800</v>
+        <v>-89.003799999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>69365.116923</v>
+        <v>69365.116922999994</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.268088</v>
+        <v>19.268087999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.727000</v>
+        <v>960.72699999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.132600</v>
+        <v>-80.132599999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>69375.592397</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.270998</v>
+        <v>19.270997999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.907000</v>
+        <v>965.90700000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.770300</v>
+        <v>-79.770300000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>69385.852143</v>
+        <v>69385.852142999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.273848</v>
+        <v>19.273848000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.150000</v>
+        <v>974.15</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.529200</v>
+        <v>-87.529200000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>69396.512881</v>
+        <v>69396.512881000002</v>
       </c>
       <c r="AP24" s="1">
         <v>19.276809</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.506000</v>
+        <v>983.50599999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.414000</v>
+        <v>-102.414</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>69407.264467</v>
+        <v>69407.264467000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.279796</v>
+        <v>19.279796000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.003000</v>
+        <v>995.00300000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>69418.267685</v>
+        <v>69418.267684999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.282852</v>
+        <v>19.282851999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.475000</v>
+        <v>-142.47499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>69428.966886</v>
+        <v>69428.966885999995</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.285824</v>
+        <v>19.285824000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.696000</v>
+        <v>-226.696</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>69439.632858</v>
+        <v>69439.632857999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.288787</v>
+        <v>19.288786999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1130.300000</v>
+        <v>1130.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.073000</v>
+        <v>-361.07299999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>69449.845521</v>
+        <v>69449.845520999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.291624</v>
+        <v>19.291623999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.540000</v>
+        <v>-567.54</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>69460.492605</v>
+        <v>69460.492605000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.294581</v>
+        <v>19.294581000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.740000</v>
+        <v>1408.74</v>
       </c>
       <c r="BV24" s="1">
-        <v>-787.489000</v>
+        <v>-787.48900000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>69471.483952</v>
+        <v>69471.483951999995</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.297634</v>
+        <v>19.297633999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.390000</v>
+        <v>1569.39</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1015.760000</v>
+        <v>-1015.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>69484.722174</v>
+        <v>69484.722173999995</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.301312</v>
+        <v>19.301311999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1971.330000</v>
+        <v>1971.33</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1548.180000</v>
+        <v>-1548.18</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>69312.691746</v>
+        <v>69312.691745999997</v>
       </c>
       <c r="B25" s="1">
         <v>19.253525</v>
       </c>
       <c r="C25" s="1">
-        <v>901.894000</v>
+        <v>901.89400000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-188.815000</v>
+        <v>-188.815</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>69323.441568</v>
+        <v>69323.441567999995</v>
       </c>
       <c r="G25" s="1">
-        <v>19.256512</v>
+        <v>19.256512000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>917.925000</v>
+        <v>917.92499999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-160.527000</v>
+        <v>-160.52699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>69333.904646</v>
+        <v>69333.904645999995</v>
       </c>
       <c r="L25" s="1">
         <v>19.259418</v>
       </c>
       <c r="M25" s="1">
-        <v>939.970000</v>
+        <v>939.97</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.349000</v>
+        <v>-116.349</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>69344.773478</v>
+        <v>69344.773478000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.262437</v>
+        <v>19.262436999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>946.439000</v>
+        <v>946.43899999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.894000</v>
+        <v>-101.89400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>69355.309000</v>
+        <v>69355.308999999994</v>
       </c>
       <c r="V25" s="1">
-        <v>19.265364</v>
+        <v>19.265364000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>953.294000</v>
+        <v>953.29399999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.962600</v>
+        <v>-88.962599999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>69365.501786</v>
+        <v>69365.501785999993</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.268195</v>
+        <v>19.268194999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.789000</v>
+        <v>960.78899999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.059200</v>
+        <v>-80.059200000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>69375.936157</v>
+        <v>69375.936157000004</v>
       </c>
       <c r="AF25" s="1">
         <v>19.271093</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.032000</v>
+        <v>966.03200000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.779600</v>
+        <v>-79.779600000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>69386.201327</v>
+        <v>69386.201327000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.273945</v>
+        <v>19.273945000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.164000</v>
+        <v>974.16399999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.558700</v>
+        <v>-87.558700000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>69396.871294</v>
+        <v>69396.871293999997</v>
       </c>
       <c r="AP25" s="1">
         <v>19.276909</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.504000</v>
+        <v>983.50400000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.411000</v>
+        <v>-102.411</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>69407.906260</v>
+        <v>69407.906260000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.279974</v>
+        <v>19.279973999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.992000</v>
+        <v>994.99199999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>69418.686309</v>
+        <v>69418.686308999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>19.282968</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.710000</v>
+        <v>1004.71</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.478000</v>
+        <v>-142.47800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>69429.265009</v>
+        <v>69429.265008999995</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.285907</v>
+        <v>19.285907000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.330000</v>
+        <v>1050.33</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.699000</v>
+        <v>-226.69900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>69439.975843</v>
+        <v>69439.975842999993</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.288882</v>
+        <v>19.288882000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1130.310000</v>
+        <v>1130.31</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.064000</v>
+        <v>-361.06400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>69450.269562</v>
+        <v>69450.269562000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.291742</v>
+        <v>19.291741999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.546000</v>
+        <v>-567.54600000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>69460.924622</v>
+        <v>69460.924622000006</v>
       </c>
       <c r="BT25" s="1">
         <v>19.294701</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.660000</v>
+        <v>1408.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-787.394000</v>
+        <v>-787.39400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>69471.908030</v>
+        <v>69471.908030000006</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.297752</v>
+        <v>19.297751999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1569.320000</v>
+        <v>1569.32</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1015.610000</v>
+        <v>-1015.61</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>69485.259340</v>
+        <v>69485.259340000004</v>
       </c>
       <c r="CD25" s="1">
         <v>19.301461</v>
       </c>
       <c r="CE25" s="1">
-        <v>1971.480000</v>
+        <v>1971.48</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1549.870000</v>
+        <v>-1549.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>69313.032037</v>
+        <v>69313.032036999997</v>
       </c>
       <c r="B26" s="1">
-        <v>19.253620</v>
+        <v>19.253620000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>901.822000</v>
+        <v>901.822</v>
       </c>
       <c r="D26" s="1">
-        <v>-188.776000</v>
+        <v>-188.77600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>69324.086133</v>
+        <v>69324.086133000004</v>
       </c>
       <c r="G26" s="1">
         <v>19.256691</v>
       </c>
       <c r="H26" s="1">
-        <v>917.430000</v>
+        <v>917.43</v>
       </c>
       <c r="I26" s="1">
-        <v>-160.222000</v>
+        <v>-160.22200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>69334.563856</v>
+        <v>69334.563855999993</v>
       </c>
       <c r="L26" s="1">
         <v>19.259601</v>
       </c>
       <c r="M26" s="1">
-        <v>939.857000</v>
+        <v>939.85699999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.363000</v>
+        <v>-116.363</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>69345.163335</v>
+        <v>69345.163335000005</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.262545</v>
+        <v>19.262544999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.485000</v>
+        <v>946.48500000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.937000</v>
+        <v>-101.937</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>69355.601640</v>
+        <v>69355.601639999993</v>
       </c>
       <c r="V26" s="1">
         <v>19.265445</v>
       </c>
       <c r="W26" s="1">
-        <v>953.219000</v>
+        <v>953.21900000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.954200</v>
+        <v>-88.9542</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>69365.851002</v>
+        <v>69365.851001999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.268292</v>
+        <v>19.268291999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.781000</v>
+        <v>960.78099999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.076800</v>
+        <v>-80.076800000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>69376.280844</v>
+        <v>69376.280843999994</v>
       </c>
       <c r="AF26" s="1">
         <v>19.271189</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.128000</v>
+        <v>966.12800000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.769800</v>
+        <v>-79.769800000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>69386.551006</v>
+        <v>69386.551005999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.274042</v>
+        <v>19.274042000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.142000</v>
+        <v>974.14200000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.524800</v>
+        <v>-87.524799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>69397.289424</v>
+        <v>69397.289424000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.277025</v>
+        <v>19.277024999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.503000</v>
+        <v>983.50300000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>69408.383410</v>
+        <v>69408.383409999995</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.280107</v>
+        <v>19.280107000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.990000</v>
+        <v>994.99</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.825000</v>
+        <v>-123.825</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>69418.987381</v>
+        <v>69418.987380999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.283052</v>
+        <v>19.283052000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.690000</v>
+        <v>1004.69</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.494000</v>
+        <v>-142.494</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>69429.626567</v>
+        <v>69429.626566999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.286007</v>
+        <v>19.286007000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.310000</v>
+        <v>1050.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.687000</v>
+        <v>-226.68700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>69440.366439</v>
+        <v>69440.366439000005</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.288991</v>
+        <v>19.288990999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1130.280000</v>
+        <v>1130.28</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.068000</v>
+        <v>-361.06799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>69450.662890</v>
+        <v>69450.662890000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.291851</v>
+        <v>19.291851000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.950000</v>
+        <v>1261.95</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.499000</v>
+        <v>-567.49900000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>69461.352171</v>
+        <v>69461.352171000006</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.294820</v>
+        <v>19.294820000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-787.224000</v>
+        <v>-787.22400000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>69472.324669</v>
+        <v>69472.324668999994</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.297868</v>
+        <v>19.297868000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.320000</v>
+        <v>1569.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1015.730000</v>
+        <v>-1015.73</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>69485.800507</v>
+        <v>69485.800507000007</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.301611</v>
+        <v>19.301611000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1972.800000</v>
+        <v>1972.8</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1548.800000</v>
+        <v>-1548.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>